--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R436280c50a4a4bc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rfb8a88bfbe8b4a5b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2cad1e234ee84063"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0a94e6e4b3449f5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R31f3093d4b864fc0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23183dfe19944915"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rfb8a88bfbe8b4a5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R01d5dbbbb83d4b9e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra0a94e6e4b3449f5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a1ce41332f3484e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23183dfe19944915"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R28c7d12657b14f09"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R01d5dbbbb83d4b9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R931a9dbf994145e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a1ce41332f3484e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R04f254ecbfc645db"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R28c7d12657b14f09"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbe51c0a479964797"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R931a9dbf994145e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R356d87550f424399"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R04f254ecbfc645db"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60abd3493e3e4c7d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbe51c0a479964797"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc1510bf808d1437c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R356d87550f424399"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R3cfecab7f5c84a09"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R60abd3493e3e4c7d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc423333d8f1d40b4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc1510bf808d1437c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R75678630ba714a90"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R3cfecab7f5c84a09"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rc81b6a22ebd54238"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc423333d8f1d40b4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c764d90e2774d56"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R75678630ba714a90"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0a6998df30945fe"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rc81b6a22ebd54238"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R02efa7d624c94a7e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c764d90e2774d56"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ea536a3c9bb474f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0a6998df30945fe"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4dcefde47f1348ae"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R02efa7d624c94a7e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Raedfff19e2cb488b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ea536a3c9bb474f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1405a55ad6a7453f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4dcefde47f1348ae"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1885ab33b1b4ec2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Raedfff19e2cb488b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rc9abd4b06a0340e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1405a55ad6a7453f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra44de09cfac44afd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1885ab33b1b4ec2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11520adca0ce4a7a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rc9abd4b06a0340e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rbc3e715967e14368"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra44de09cfac44afd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd3f7a8c78a574fd9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11520adca0ce4a7a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R012442b1a24b4532"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rbc3e715967e14368"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rc3c850ea61b945fd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd3f7a8c78a574fd9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R54ffb468f4ca4254"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R012442b1a24b4532"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R94fce4dfa2144c37"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Rc3c850ea61b945fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Raba40d56c34b4a99"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R54ffb468f4ca4254"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R401714b92e2d4b07"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R94fce4dfa2144c37"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19eb8761076247f9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/099_ScatterChartWithExplicitYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="Raba40d56c34b4a99"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age vs Income" sheetId="1" r:id="R493c18c1d0634b67"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -219,7 +219,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R401714b92e2d4b07"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R465fd0f48cf143e9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,6 +304,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R19eb8761076247f9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf19a895409f64d5e"/>
 </x:worksheet>
 </file>